--- a/DataUpload/Seed Data/test.xlsx
+++ b/DataUpload/Seed Data/test.xlsx
@@ -18,8 +18,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ankit Seth</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ankit Seth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+error</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>NSM</t>
   </si>
@@ -33,38 +67,104 @@
     <t>b</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>FinalBeatName</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>f</t>
   </si>
   <si>
+    <t>NSMEmailId</t>
+  </si>
+  <si>
+    <t>NSMSecondaryEmailId</t>
+  </si>
+  <si>
     <t>ZSM</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>q</t>
+    <t>ZSMEmailId</t>
+  </si>
+  <si>
+    <t>ZSM Secondary Email Id</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>RSM Zone</t>
+  </si>
+  <si>
+    <t>RSM Email Id</t>
+  </si>
+  <si>
+    <t>RSM Secondary Email Id</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>ASM Email Id</t>
+  </si>
+  <si>
+    <t>ASM Zone</t>
+  </si>
+  <si>
+    <t>ASM Secondary Email Id</t>
+  </si>
+  <si>
+    <t>ESM</t>
+  </si>
+  <si>
+    <t>ESM Email Id</t>
+  </si>
+  <si>
+    <t>ESM Zone</t>
+  </si>
+  <si>
+    <t>ESM Secondary Email Id</t>
+  </si>
+  <si>
+    <t>ESM Contact No</t>
+  </si>
+  <si>
+    <t>ESM HQ</t>
+  </si>
+  <si>
+    <t>Final Beat Name</t>
+  </si>
+  <si>
+    <t>ESM ErpId</t>
+  </si>
+  <si>
+    <t>Beat Erp Id</t>
+  </si>
+  <si>
+    <t>Beat District</t>
+  </si>
+  <si>
+    <t>Beat State</t>
+  </si>
+  <si>
+    <t>Beat Zone</t>
+  </si>
+  <si>
+    <t>Distributor Name</t>
+  </si>
+  <si>
+    <t>Distributor Location</t>
+  </si>
+  <si>
+    <t>Distributor ErpId</t>
+  </si>
+  <si>
+    <t>Distributor Email Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +172,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,89 +552,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" customWidth="1"/>
+    <col min="29" max="29" width="20.5703125" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>